--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelbeltran/Documents/EMPRESAS/SAPIENS/SpinOffs/2023-ai001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelbeltran/sapiens/SpinOffs/2023-ai001/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD73912-A92F-0A47-BF5D-BA36E65054F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46366B37-FBFF-2F45-9645-9E8BFD2AF3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>Tiene la organización definidos los elementos de su formulación estratégica? ¿Cuáles son y cómo los definen?</t>
   </si>
@@ -53,6 +53,332 @@
   </si>
   <si>
     <t>Cuantanos cual es el Nombre de la empresa</t>
+  </si>
+  <si>
+    <t>¿La organización tiene en cuenta la innovación y la define como motor de sostenibilidad?</t>
+  </si>
+  <si>
+    <t>¿Cómo se definen y planifcan los objetivos, las acciones, los recursos y el presupuesto necesarios para el desarrollo de las actividades de innovación en la organización?</t>
+  </si>
+  <si>
+    <t>¿Cómo se introducen innovaciones y mejoras en los procesos?</t>
+  </si>
+  <si>
+    <t>¿Se han implementado innovaciones en los últimos años? Cuáles son las principales innovaciones implementadas en relación con los procesos, sistemas, productos y/o servicios?</t>
+  </si>
+  <si>
+    <t>f.  ¿Se miden, evalúan, mejoran e innovan los procesos anteriormente descritos?</t>
+  </si>
+  <si>
+    <t>¿Cuantifican los ingresos generados por los productos desarrollados con base en procesos de innovación en los últimos años?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Mide la organización su capacidad y resultados en innovación con respecto al mercado y/o a la competencia?
+</t>
+  </si>
+  <si>
+    <t>¿Cómo realiza seguimiento al cumplimento de las metas de innovación?</t>
+  </si>
+  <si>
+    <t>¿Cómo se hace la alineación de la estructura organizacional (perfiles, relaciones, competencias) con la estrategia para lograr el cumplimiento de los objetivos propuestos?</t>
+  </si>
+  <si>
+    <t>¿De qué forma la estructura y estrategia favorecen el desarrollo de una cultura de innovación?</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los elementos de la cultura organizacional deseada para cumplir la estrategia?</t>
+  </si>
+  <si>
+    <t>¿Se traducen esos elementos en conductas y comportamientos visibles en las personas de la organización?</t>
+  </si>
+  <si>
+    <t>¿Desarrollan acciones para ejecutar la cultura organizacional alineada a la estrategia?</t>
+  </si>
+  <si>
+    <t>¿ Toma la organización acciones para promover la innovación como elemento fundamental dentro de la cultura organizacional?</t>
+  </si>
+  <si>
+    <t>Tiene identificadas las cuestiones externas e internas que pueden representar debilidades, fortalezas, oportunidades y que afecten su capacidad para lograr los resultados previstos de su sistema de gestión de la inocuidad de los alimentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene identificadas sus partes interesadas pertinentes para el sistema de gestión de la inocuidad y conoce las necesidades y expectativas de las mismas? Cómo? </t>
+  </si>
+  <si>
+    <t>Tiene definido el alcance de su sistema de gestión de la inocuidad de los alimentos?</t>
+  </si>
+  <si>
+    <t>"tiene identiicados sus procesos? cuáles son?
+Se tiene documentada en la medida que se ve necesario.."</t>
+  </si>
+  <si>
+    <t>La alta dirección demuestra compromiso y liderazgo con respecto al sistema de gestión de la inocuidad de los alimentos.</t>
+  </si>
+  <si>
+    <t>La empresa cuenta con una política de inocuidad alineada al propósito y contexto de la organización</t>
+  </si>
+  <si>
+    <t>La política de inocuidad esta disponible y se socializa con las partes interesadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La organización tiene definido los responsabilidades y autoridad para asegurar que el sistema de gestión de la inocuidad de los alimentos cumpla los requisitos. Se tiene un equipo de inocuidad alimentaría y un líder del equipo de inocuidad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El jefe del equipo de inocuidad garantiza que el sistema de gestión de la inocuidad se establezca, aplique, mantenga y actualice, gestiona y organizar el trabajo del equipo de inocuidad y garantizar la formación y competencias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El personal de la empresa  informa el (los) problema(s) con el sistema de gestión de inocuidad a las personas identificadas.</t>
+  </si>
+  <si>
+    <t>La empresa gestiona sus riesgos y oportunidades para para asegurar que el SGIA pueda lograr sus resultados previstos</t>
+  </si>
+  <si>
+    <t>Se planifican los cambios que pueden afectar la integridad del sistema de gestión de la inocuidad</t>
+  </si>
+  <si>
+    <t>Los objetivos del sistema de gestión de la inocuidad han sido establecidos en las funciones y niveles pertinentes.</t>
+  </si>
+  <si>
+    <t>. Se miden los objetivos?</t>
+  </si>
+  <si>
+    <t>La empresa cuenta con un equipo de colaboradores competentes necesario para su operación y para lograr la conformidad de sus productos/servicios y la eficacia del SGIA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La empresa cuenta con la infraestructura necesaria para su operación y para lograr la conformidad de sus productos/ servicios y para lograr la conformidad con los requisitos del SGIA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La empresa tiene identificados los recursos necesarios para su sistema de gestión de inocuidad.</t>
+  </si>
+  <si>
+    <t>La empresa cuenta con el ambiente necesario para la operación  de sus procesos y para lograr la conformidad de sus productos/ servicios y para lograr la conformidad con los requisitos del SGIA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La empresa se asegura de que los elementos del SGIA desarrollados externamente son desarrollados en conformidad con los requisitos de la norma, aplican a los procesos y productos y se conserva como información documentada. </t>
+  </si>
+  <si>
+    <t>La empresa tiene establecido y aplica criterios para la evaluación, selección y seguimiento del desempeño y reevaluación de proveedores externos de procesos, productos y servicios y se conserva la información documentada.</t>
+  </si>
+  <si>
+    <t>Se ha determinado la competencia del personal que realiza trabajos que afectan a su desempeño en materia de inocuidad de los alimentos y la eficacia del SGIA.</t>
+  </si>
+  <si>
+    <t>Existe una metodología que permita identificar las necesidades de formación y suministrar la misma al personal del SGIA.</t>
+  </si>
+  <si>
+    <t>Se mantienen registros que evidencien la educación, formación, habilidades y experiencia.</t>
+  </si>
+  <si>
+    <t>Que acciones toma la empresa para que las personas tomen conciencia de la importancia de la aplicación de la política de inocuidad, los objetivos y el cumplimiento de los requisitos.</t>
+  </si>
+  <si>
+    <t>Se tiene un alto grado de conciencia en las personas sobre la importancia del SGIA y su aplicación en la empresa.</t>
+  </si>
+  <si>
+    <t>7.4.1 Se han establecido los procesos de comunicación interna y externa relacionada con el SGIA.</t>
+  </si>
+  <si>
+    <t>La organización tiene establecido, implementado y mantene comunicaciones efectivas con proveedores externos, contratistas, clientes y/o consumidores, con relación al producto, identificación de peligros, arreglos contractuales, retroalimentación de clientes y quejas. Se conserva como información documentada y como insumo para la revisión de la dirección.</t>
+  </si>
+  <si>
+    <t>La empresa tiene establecido, aplica y mantene disposiciones para la comunicación entre personas sobre cuestiones relacionadas con el SGIA. La empresa se debe asegurarse de que el equipo de inocuidad es informado oportunamente de los cambios que se presenten en los productos, procesos u otras condiciones que impacten la inocuidad.</t>
+  </si>
+  <si>
+    <t>La empresa mantiene un sistema adecuado y organizado para el control, disposición, conservación y  socialización de su documentación.</t>
+  </si>
+  <si>
+    <t>Se planifican los procesos para la realización de productos inocuos e implementa acciones para abordar riesgos y oportunidades</t>
+  </si>
+  <si>
+    <t>se establecen crietrios para los procesos</t>
+  </si>
+  <si>
+    <t>se implementa control de los procesos de acuerdo a los criterios.</t>
+  </si>
+  <si>
+    <t>Se mantiene la información documentada que demuestre que los procesos se llevan a cabo según lo planeado.</t>
+  </si>
+  <si>
+    <t>Se consideraron lo siguiente al establecer PPR:
+- Construcción y distribución de zona de trabajo, empleados.
+- Suministro de servicios (agua, aire,energia)
+- Servicios de apoyo (Control de plagas, desechos y aguas residuales)
+- Idoneidad de Equipos: facilidad de limpieza y mantenimiento.
+- Proceso proveedores (aprobación y aseguramiento).
+- Recepcion, almacenamiento, despacho, transporte y manipulacion de productos.
+- Prevencion de contaminación cruzada.
+- Limpieza y desinfección.
+- Higiene Personal.
+- Informacion del producto, concientización del consumidor.</t>
+  </si>
+  <si>
+    <t>Se identificarón requisitos legales, reglamentarios y del cliente al establecer los PPR</t>
+  </si>
+  <si>
+    <t>los PPR son:
+- Apropiados para la organización, contexto en relación a la inocuidad.
+- Apropiados al tamaño, tipo de operación, naturaleza del producto elaborado o manipulado.
+- Implementado a todo el sistema de produccion.
+- Aprobados por el equipo de Inocuidad</t>
+  </si>
+  <si>
+    <t>Se establecen, implementan, mantienen y actualizan PPR para la prevención o reducción de contaminantes en productos, procesos y ambiente de trabajo.</t>
+  </si>
+  <si>
+    <t>El sistema de trazabilidad identifica de manera unica el material entrante de proveedores y la distribución del producto terminado considerar: lotes de materiales recibidos, ingredientes, productos intermedios y producto terminado, reprocesos, información documentada de la trazazabilidad como mínimo la vida útil del producto.</t>
+  </si>
+  <si>
+    <t>Se encuentra disponibles los procedimientos para responder a situaciones de emergencia potenciales o incidentes que afectan la inocuidad de los alimentos y son pertinentes.</t>
+  </si>
+  <si>
+    <t>Se gestiona las emergencias e incidentes reales identificando requisitos legales y reglamentarios, comunicando interna y externa, tomando medidas para reducir consecuencias, probar procedimiento periódicamente, actualizar información documentada si es necesario.</t>
+  </si>
+  <si>
+    <t>Información preliminar:
+a) los requisitos legales, regulatorios y del cliente aplicables
+b) los productos, procesos y equipamiento de la organización
+c) los peligros para la inocuidad de los alimentos pertinentes para el sistema de gestión de la inocuidad de los alimentos</t>
+  </si>
+  <si>
+    <t>Documentacion de las  Características de las materias primas, ingredientes y materiales de contacto del producto.
+contemplando: 
+a) características biológicas, químicas y físicas;
+b) la composición de los ingredientes formulados, incluidos los aditivos y los coadyuvantes de elaboración;
+c) origen (por ejemplo, animal, mineral o vegetal)
+d) lugar de procedencia
+e) método de producción;
+f) métodos de embalaje y entrega;
+g) condiciones de almacenamiento y vida útil;
+h) preparación y / o manipulación antes del uso o procesamiento;
+i) los criterios de aceptación relacionados con la inocuidad de los alimentos o las especificaciones de los materiales comprados y de los ingredientes apropiados para sus usos previstos.</t>
+  </si>
+  <si>
+    <t>Características de los productos finales
+Información documentada sobre las características de los productos finales en la para llevar a cabo el análisis de peligros, incluyendo:
+a) nombre del producto o identificación similar;
+b) composición;
+c) características biológicas, químicas y físicas relevantes para la inocuidad de los alimentos;
+d) tiempo de conservación y condiciones de almacenamiento;
+e) embalaje;
+f) etiquetado relativo a la inocuidad de los alimentos y / o instrucciones para su manipulación, preparación y uso previsto;
+g) métodos de distribución y entrega"</t>
+  </si>
+  <si>
+    <t>Uso previsto: uso previsto, la manipulación razonablemente esperada del producto final, identificación de los grupos de consumidores / usuarios para cada producto.</t>
+  </si>
+  <si>
+    <t>Diagramas de flujo como información documentada que incluyan:
+a) la secuencia e interacción de los pasos en la operación;
+b) cualquier proceso subcontratado;
+c) dónde se incorpora al flujo las materias primas, los ingredientes, ayudas en proceso, servicios, los materiales de embalaje y los productos intermedios;
+d) dónde se reprocesa y se hace reciclado; y
+e) dónde salen o se eliminan los productos finales, los productos intermedios, los subproductos y los desecho</t>
+  </si>
+  <si>
+    <t>El equipo de inocuidad confirma in situ la precisión de los diagramas de flujo, actualizan y conservan información documentada.</t>
+  </si>
+  <si>
+    <t>Descripción de procesos y ambiente de proceso
+En la medida en que sea necesario para llevar a cabo el análisis de peligros:
+a) distribución de los locales, incluidas las áreas de manipulación o no de alimentos;
+b) equipos de procesamiento y materiales de contacto, ayudas en proceso y flujo de materiales;
+c) los PPRs existentes, los parámetros del proceso, las medidas de control y / o el rigor con que se aplican, o los procedimientos que pueden influir en la inocuidad de los alimentos;
+d) requisitos externos (por ejemplo, de autoridades legales / reguladoras o clientes) que puedan afectar la elección y el rigor de las medidas de control.</t>
+  </si>
+  <si>
+    <t>La organización debe identificar y documentar todos los peligros de inocuidad de los alimentos que razonablemente se espera que ocurran en relación al tipo de producto, tipo de proceso y ambiente de proceso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La organización debe identificar en las etapas del proceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La organización determinará el nivel aceptable en el producto final de cada peligro de inocuidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teniendo,en cuenta  la probabilidad de que ocurra en el producto final antes de la aplicación de las medidas de control; y la gravedad de sus efectos adversos para la salud en relación con el uso previsto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a organización categorizará las medidas de control identificadas para ser gestionadas como PPRO  o como PCC.
+Evaluando:
+a) la probabilidad de falla de su funcionamiento;
+b) la gravedad de la consecuencia en caso de fallo de su funcionamiento; </t>
+  </si>
+  <si>
+    <t>para cada medida de control, se han incluido:
+a)  límites críticos medibles y / o criterios de acción medibles / observables;
+b) monitoreo para detectar cualquier falla en el cumplimiento de los límites críticos medibles y / o criterios de acción medibles / observables;
+c) correcciones oportunas en caso de falla.</t>
+  </si>
+  <si>
+    <t>Validación de las medidas de control y combinaciones de las medidas de control
+validar que las medidas de control seleccionadas son capaces de lograr el control previsto.  previo a la implementación 
+La organización</t>
+  </si>
+  <si>
+    <t>Plan de control de peligros (plan HACCP / PPRO)
+establecerá, aplicará y mantendrá un plan de control de peligros
+incluirá la siguiente información para cada medida de control en cada PCC o PPRO:
+a) peligros para la inocuidad de los alimentos a ser controlado en el PCC o por el PPRO;
+b) límites críticos de PCC o criterios de acción para PPRO;
+c) procedimientos de monitoreo;
+d) correcciones que deben tomarse si no se cumplen los límites críticos o los criterios de acción;
+e) responsabilidades y autoridades;
+f) registros de monitoreo.</t>
+  </si>
+  <si>
+    <t>Sistemas de monitoreo en PCC y en PPRO En cada PCC se establecerá un sistema de monitoreo para cada medida de control o combinación de ellas. Que incluya mediciones, metodos, resultados, frecuencia, responsabilidad</t>
+  </si>
+  <si>
+    <t>La organización deberá especificar correcciones y las acciones correctiva</t>
+  </si>
+  <si>
+    <t>Se implementa el plan de control de peligros y mantiene evidencia de laimplementación como informacion documentada</t>
+  </si>
+  <si>
+    <t>Se actualiza la siguiente información:
+- caracteristicas de materias primas, ingredientes, materiales que tienen contacto con el producto, caracteristicas de los productos terminados, el uso previsto, diagramas de flujos y descripcion de procesos.
+- Plan de control de peligros y PPR</t>
+  </si>
+  <si>
+    <t>Son adecuados los métodos y equipos de seguimiento y medición relacionados con los PPR y plan de control de peligros, conserva información documentada</t>
+  </si>
+  <si>
+    <t>Se establece actividades de verificación de los PPR, control de peligros, niveles de peligros, elementos de entrada actualizados, conserva información documentada</t>
+  </si>
+  <si>
+    <t>El equipo de inocuidad realiza análisis de resultados de la verificación</t>
+  </si>
+  <si>
+    <t>Control de las salidas no conformes</t>
+  </si>
+  <si>
+    <t>Se asegura que los datos de seguimiento de los PPRO y PCC sean evaluados por personas competentes y cuentan con autoridad para iniciar correcciones y acciones correctivas</t>
+  </si>
+  <si>
+    <t>Se asegura cuando no se cumple los limites críticos para los PCC, criterios de acción para los PPRO los productos afectados se identifican y controlan su uso y liberación.</t>
+  </si>
+  <si>
+    <t>Se identifica y manipula como productos potencialmente no inocuos al no cumplir con los limites criticos en los PCC.</t>
+  </si>
+  <si>
+    <t>Se determinan las consecuencias, causas de la falla y la identificación de los productos afectados cuando no se cumple los criterios de acción para un PPRO.</t>
+  </si>
+  <si>
+    <t>Se conserva información documentada que describa las correcciones realizadas en productos y procesos no conformes</t>
+  </si>
+  <si>
+    <t>Se evalúa las acciones correctivas cuando los límites críticos de los PCC y los criterios de acción para los PPRO no cumplan, se cuenta con información documentada</t>
+  </si>
+  <si>
+    <t>Se toman acciones para prevenir el ingreso de productos potencialmente no inocuos en la cadena alimentaria.</t>
+  </si>
+  <si>
+    <t>Se evalúa cada lote afectado por la no conformidad, Se da tratamiento de producto no conforme al no mantenerse en los límites Criticos de los PCC,    se liberan los productos como inocuos al incumplimiento del criterio de acción para los PPRO. Se mantiene información documentada.</t>
+  </si>
+  <si>
+    <t>Los productos que no son aceptables se reprocesan, redirige para otro uso, destruidos o dispuestos para desecho, se cuenta con información documentada.</t>
+  </si>
+  <si>
+    <t>Se garantiza la retirada/ recuperación oportuna de lotes de productos terminados identificados potencialmente no inocuos, se cuenta con información documentada</t>
   </si>
 </sst>
 </file>
@@ -88,8 +414,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,70 +721,510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="149.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
